--- a/cw3_predictions.xlsx
+++ b/cw3_predictions.xlsx
@@ -8,14 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="ML Linear Model" sheetId="1" r:id="rId1"/>
-    <sheet name="Charts" sheetId="2" r:id="rId2"/>
+    <sheet name="ML Random Forest Model" sheetId="2" r:id="rId2"/>
+    <sheet name="ML K Nearest Neighbors Model" sheetId="3" r:id="rId3"/>
+    <sheet name="Linear Charts" sheetId="4" r:id="rId4"/>
+    <sheet name="Random Forest Charts" sheetId="5" r:id="rId5"/>
+    <sheet name="K Nearest Neighbors Charts" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="170">
   <si>
     <t>Full Name</t>
   </si>
@@ -522,6 +526,9 @@
   </si>
   <si>
     <t>poor (20 - 30% out)</t>
+  </si>
+  <si>
+    <t>very poor (over 30% out)</t>
   </si>
 </sst>
 </file>
@@ -665,8 +672,122 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>607771</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>151714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="forest_charts.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="14628571" cy="5485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>607771</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>151714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="forest_charts.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="14628571" cy="5485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E161" totalsRowShown="0">
+  <autoFilter ref="A1:E161"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Full Name"/>
+    <tableColumn id="2" name="Actual"/>
+    <tableColumn id="3" name="Predicted"/>
+    <tableColumn id="4" name="Difference"/>
+    <tableColumn id="5" name="Accuracy"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E161" totalsRowShown="0">
+  <autoFilter ref="A1:E161"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Full Name"/>
+    <tableColumn id="2" name="Actual"/>
+    <tableColumn id="3" name="Predicted"/>
+    <tableColumn id="4" name="Difference"/>
+    <tableColumn id="5" name="Accuracy"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E161" totalsRowShown="0">
   <autoFilter ref="A1:E161"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Full Name"/>
@@ -3737,6 +3858,5578 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E161"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="6" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>63.84882773536869</v>
+      </c>
+      <c r="D2">
+        <v>3.848827735368694</v>
+      </c>
+      <c r="E2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>60.99932902478723</v>
+      </c>
+      <c r="D3">
+        <v>5.00067097521277</v>
+      </c>
+      <c r="E3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>64.69825418561531</v>
+      </c>
+      <c r="D4">
+        <v>3.698254185615312</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>71.61862763306279</v>
+      </c>
+      <c r="D5">
+        <v>3.381372366937214</v>
+      </c>
+      <c r="E5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>62.73389679655526</v>
+      </c>
+      <c r="D6">
+        <v>4.733896796555264</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>66.28725151882946</v>
+      </c>
+      <c r="D7">
+        <v>15.28725151882946</v>
+      </c>
+      <c r="E7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>59.93569669120915</v>
+      </c>
+      <c r="D8">
+        <v>6.935696691209145</v>
+      </c>
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>62.26036960102945</v>
+      </c>
+      <c r="D9">
+        <v>10.26036960102945</v>
+      </c>
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>64.96271597441574</v>
+      </c>
+      <c r="D10">
+        <v>2.037284025584256</v>
+      </c>
+      <c r="E10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>51.83849141742287</v>
+      </c>
+      <c r="D11">
+        <v>6.161508582577127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>67.32581450278046</v>
+      </c>
+      <c r="D12">
+        <v>2.32581450278046</v>
+      </c>
+      <c r="E12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>59.20801227091394</v>
+      </c>
+      <c r="D13">
+        <v>28.20801227091394</v>
+      </c>
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>62.20730190305571</v>
+      </c>
+      <c r="D14">
+        <v>0.2073019030557148</v>
+      </c>
+      <c r="E14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>66.75380521554725</v>
+      </c>
+      <c r="D15">
+        <v>8.753805215547246</v>
+      </c>
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>70.57466376357722</v>
+      </c>
+      <c r="D16">
+        <v>26.57466376357722</v>
+      </c>
+      <c r="E16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <v>55.49362069551123</v>
+      </c>
+      <c r="D17">
+        <v>12.50637930448877</v>
+      </c>
+      <c r="E17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>60.23646104844318</v>
+      </c>
+      <c r="D18">
+        <v>2.763538951556825</v>
+      </c>
+      <c r="E18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>46.46709253389828</v>
+      </c>
+      <c r="D19">
+        <v>4.532907466101719</v>
+      </c>
+      <c r="E19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>55.31109588893768</v>
+      </c>
+      <c r="D20">
+        <v>4.311095888937679</v>
+      </c>
+      <c r="E20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>67</v>
+      </c>
+      <c r="C21">
+        <v>62.68007195107711</v>
+      </c>
+      <c r="D21">
+        <v>4.31992804892289</v>
+      </c>
+      <c r="E21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>59.5176431212723</v>
+      </c>
+      <c r="D22">
+        <v>6.5176431212723</v>
+      </c>
+      <c r="E22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>88</v>
+      </c>
+      <c r="C23">
+        <v>69.95449447980417</v>
+      </c>
+      <c r="D23">
+        <v>18.04550552019583</v>
+      </c>
+      <c r="E23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>76</v>
+      </c>
+      <c r="C24">
+        <v>71.53796061384897</v>
+      </c>
+      <c r="D24">
+        <v>4.462039386151034</v>
+      </c>
+      <c r="E24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>58.91669139629303</v>
+      </c>
+      <c r="D25">
+        <v>0.08330860370697479</v>
+      </c>
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>66.83376631832402</v>
+      </c>
+      <c r="D26">
+        <v>3.166233681675976</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>63</v>
+      </c>
+      <c r="C27">
+        <v>68.96319093790653</v>
+      </c>
+      <c r="D27">
+        <v>5.963190937906532</v>
+      </c>
+      <c r="E27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>84</v>
+      </c>
+      <c r="C28">
+        <v>76.2323051438697</v>
+      </c>
+      <c r="D28">
+        <v>7.767694856130305</v>
+      </c>
+      <c r="E28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>58.63112031151449</v>
+      </c>
+      <c r="D29">
+        <v>11.36887968848551</v>
+      </c>
+      <c r="E29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>58.64229388191821</v>
+      </c>
+      <c r="D30">
+        <v>3.642293881918206</v>
+      </c>
+      <c r="E30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>63</v>
+      </c>
+      <c r="C31">
+        <v>62.16900038266006</v>
+      </c>
+      <c r="D31">
+        <v>0.8309996173399412</v>
+      </c>
+      <c r="E31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>65.90171784189893</v>
+      </c>
+      <c r="D32">
+        <v>10.90171784189893</v>
+      </c>
+      <c r="E32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>69.80235647970947</v>
+      </c>
+      <c r="D33">
+        <v>3.197643520290526</v>
+      </c>
+      <c r="E33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>58</v>
+      </c>
+      <c r="C34">
+        <v>59.22741940232984</v>
+      </c>
+      <c r="D34">
+        <v>1.227419402329843</v>
+      </c>
+      <c r="E34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>73</v>
+      </c>
+      <c r="C35">
+        <v>68.19986646430719</v>
+      </c>
+      <c r="D35">
+        <v>4.800133535692808</v>
+      </c>
+      <c r="E35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>70</v>
+      </c>
+      <c r="C36">
+        <v>69.7553463350782</v>
+      </c>
+      <c r="D36">
+        <v>0.244653664921799</v>
+      </c>
+      <c r="E36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>66.28725151882946</v>
+      </c>
+      <c r="D37">
+        <v>8.287251518829464</v>
+      </c>
+      <c r="E37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>57.05877557709562</v>
+      </c>
+      <c r="D38">
+        <v>7.058775577095616</v>
+      </c>
+      <c r="E38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>71</v>
+      </c>
+      <c r="C39">
+        <v>73.56483252973814</v>
+      </c>
+      <c r="D39">
+        <v>2.56483252973814</v>
+      </c>
+      <c r="E39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <v>68.36838741289429</v>
+      </c>
+      <c r="D40">
+        <v>3.368387412894293</v>
+      </c>
+      <c r="E40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>64.76539835698085</v>
+      </c>
+      <c r="D41">
+        <v>19.76539835698085</v>
+      </c>
+      <c r="E41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>85</v>
+      </c>
+      <c r="C42">
+        <v>66.92527758971831</v>
+      </c>
+      <c r="D42">
+        <v>18.07472241028169</v>
+      </c>
+      <c r="E42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>65</v>
+      </c>
+      <c r="C43">
+        <v>77.45118686922245</v>
+      </c>
+      <c r="D43">
+        <v>12.45118686922245</v>
+      </c>
+      <c r="E43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>76</v>
+      </c>
+      <c r="C44">
+        <v>67.97157375208786</v>
+      </c>
+      <c r="D44">
+        <v>8.028426247912137</v>
+      </c>
+      <c r="E44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>68.8913456996591</v>
+      </c>
+      <c r="D45">
+        <v>1.108654300340902</v>
+      </c>
+      <c r="E45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>67.12433060481459</v>
+      </c>
+      <c r="D46">
+        <v>1.875669395185412</v>
+      </c>
+      <c r="E46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>81</v>
+      </c>
+      <c r="C47">
+        <v>57.57812827041873</v>
+      </c>
+      <c r="D47">
+        <v>23.42187172958127</v>
+      </c>
+      <c r="E47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>65</v>
+      </c>
+      <c r="C48">
+        <v>69.41928623915341</v>
+      </c>
+      <c r="D48">
+        <v>4.419286239153408</v>
+      </c>
+      <c r="E48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>68</v>
+      </c>
+      <c r="C49">
+        <v>66.28725151882946</v>
+      </c>
+      <c r="D49">
+        <v>1.712748481170536</v>
+      </c>
+      <c r="E49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>50.93122504641123</v>
+      </c>
+      <c r="D50">
+        <v>13.93122504641123</v>
+      </c>
+      <c r="E50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>72</v>
+      </c>
+      <c r="C51">
+        <v>63.91297154985312</v>
+      </c>
+      <c r="D51">
+        <v>8.087028450146882</v>
+      </c>
+      <c r="E51" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>67.16137527908802</v>
+      </c>
+      <c r="D52">
+        <v>2.16137527908802</v>
+      </c>
+      <c r="E52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>87</v>
+      </c>
+      <c r="C53">
+        <v>75.52788605903289</v>
+      </c>
+      <c r="D53">
+        <v>11.47211394096711</v>
+      </c>
+      <c r="E53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>60.66219725283814</v>
+      </c>
+      <c r="D54">
+        <v>7.662197252838141</v>
+      </c>
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>61.24770782700636</v>
+      </c>
+      <c r="D55">
+        <v>7.247707827006359</v>
+      </c>
+      <c r="E55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <v>65.99999657523617</v>
+      </c>
+      <c r="D56">
+        <v>0.9999965752361675</v>
+      </c>
+      <c r="E56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>58.64320404166308</v>
+      </c>
+      <c r="D57">
+        <v>3.356795958336924</v>
+      </c>
+      <c r="E57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>27</v>
+      </c>
+      <c r="C58">
+        <v>58.41089297062356</v>
+      </c>
+      <c r="D58">
+        <v>31.41089297062356</v>
+      </c>
+      <c r="E58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>79</v>
+      </c>
+      <c r="C59">
+        <v>65.28462144846226</v>
+      </c>
+      <c r="D59">
+        <v>13.71537855153774</v>
+      </c>
+      <c r="E59" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>66.04167272321003</v>
+      </c>
+      <c r="D60">
+        <v>3.958327276789973</v>
+      </c>
+      <c r="E60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>72</v>
+      </c>
+      <c r="C61">
+        <v>64.42903578912789</v>
+      </c>
+      <c r="D61">
+        <v>7.570964210872106</v>
+      </c>
+      <c r="E61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>70</v>
+      </c>
+      <c r="C62">
+        <v>80.57518373014626</v>
+      </c>
+      <c r="D62">
+        <v>10.57518373014626</v>
+      </c>
+      <c r="E62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>76</v>
+      </c>
+      <c r="C63">
+        <v>65.20714961732992</v>
+      </c>
+      <c r="D63">
+        <v>10.79285038267008</v>
+      </c>
+      <c r="E63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>85</v>
+      </c>
+      <c r="C64">
+        <v>74.5504123004674</v>
+      </c>
+      <c r="D64">
+        <v>10.4495876995326</v>
+      </c>
+      <c r="E64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>64.73653922560482</v>
+      </c>
+      <c r="D65">
+        <v>1.736539225604815</v>
+      </c>
+      <c r="E65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>78</v>
+      </c>
+      <c r="C66">
+        <v>71.09939505845838</v>
+      </c>
+      <c r="D66">
+        <v>6.900604941541616</v>
+      </c>
+      <c r="E66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>63</v>
+      </c>
+      <c r="C67">
+        <v>59.19244705433758</v>
+      </c>
+      <c r="D67">
+        <v>3.807552945662415</v>
+      </c>
+      <c r="E67" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>65.32611540736259</v>
+      </c>
+      <c r="D68">
+        <v>2.673884592637407</v>
+      </c>
+      <c r="E68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>85</v>
+      </c>
+      <c r="C69">
+        <v>80.3180408730034</v>
+      </c>
+      <c r="D69">
+        <v>4.681959126996603</v>
+      </c>
+      <c r="E69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>79</v>
+      </c>
+      <c r="C70">
+        <v>64.99235573002801</v>
+      </c>
+      <c r="D70">
+        <v>14.00764426997199</v>
+      </c>
+      <c r="E70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>65.41983011202056</v>
+      </c>
+      <c r="D71">
+        <v>4.580169887979437</v>
+      </c>
+      <c r="E71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>65</v>
+      </c>
+      <c r="C72">
+        <v>65.86246093210976</v>
+      </c>
+      <c r="D72">
+        <v>0.8624609321097552</v>
+      </c>
+      <c r="E72" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <v>66.54512597922808</v>
+      </c>
+      <c r="D73">
+        <v>3.454874020771925</v>
+      </c>
+      <c r="E73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>64</v>
+      </c>
+      <c r="C74">
+        <v>67.68503349279321</v>
+      </c>
+      <c r="D74">
+        <v>3.68503349279321</v>
+      </c>
+      <c r="E74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>67</v>
+      </c>
+      <c r="C75">
+        <v>64.65096843543401</v>
+      </c>
+      <c r="D75">
+        <v>2.34903156456599</v>
+      </c>
+      <c r="E75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>85</v>
+      </c>
+      <c r="C76">
+        <v>69.86702733338535</v>
+      </c>
+      <c r="D76">
+        <v>15.13297266661465</v>
+      </c>
+      <c r="E76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>55</v>
+      </c>
+      <c r="C77">
+        <v>67.06235426192534</v>
+      </c>
+      <c r="D77">
+        <v>12.06235426192534</v>
+      </c>
+      <c r="E77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>55</v>
+      </c>
+      <c r="C78">
+        <v>66.74190477393881</v>
+      </c>
+      <c r="D78">
+        <v>11.74190477393881</v>
+      </c>
+      <c r="E78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>41</v>
+      </c>
+      <c r="C79">
+        <v>65.7878764055685</v>
+      </c>
+      <c r="D79">
+        <v>24.7878764055685</v>
+      </c>
+      <c r="E79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>67</v>
+      </c>
+      <c r="C80">
+        <v>68.22218508549363</v>
+      </c>
+      <c r="D80">
+        <v>1.222185085493635</v>
+      </c>
+      <c r="E80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>67</v>
+      </c>
+      <c r="C81">
+        <v>59.70947203892911</v>
+      </c>
+      <c r="D81">
+        <v>7.290527961070893</v>
+      </c>
+      <c r="E81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>68.10322507547944</v>
+      </c>
+      <c r="D82">
+        <v>16.89677492452056</v>
+      </c>
+      <c r="E82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+      <c r="C83">
+        <v>65.97704434062683</v>
+      </c>
+      <c r="D83">
+        <v>15.97704434062683</v>
+      </c>
+      <c r="E83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>69</v>
+      </c>
+      <c r="C84">
+        <v>61.56772177975692</v>
+      </c>
+      <c r="D84">
+        <v>7.432278220243084</v>
+      </c>
+      <c r="E84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>81</v>
+      </c>
+      <c r="C85">
+        <v>76.25713101880812</v>
+      </c>
+      <c r="D85">
+        <v>4.742868981191876</v>
+      </c>
+      <c r="E85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>67</v>
+      </c>
+      <c r="C86">
+        <v>64.69591288497847</v>
+      </c>
+      <c r="D86">
+        <v>2.304087115021531</v>
+      </c>
+      <c r="E86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>51</v>
+      </c>
+      <c r="C87">
+        <v>56.68738240350059</v>
+      </c>
+      <c r="D87">
+        <v>5.687382403500592</v>
+      </c>
+      <c r="E87" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88">
+        <v>65</v>
+      </c>
+      <c r="C88">
+        <v>71.35032856178233</v>
+      </c>
+      <c r="D88">
+        <v>6.350328561782334</v>
+      </c>
+      <c r="E88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89">
+        <v>57</v>
+      </c>
+      <c r="C89">
+        <v>72.16915233735591</v>
+      </c>
+      <c r="D89">
+        <v>15.16915233735591</v>
+      </c>
+      <c r="E89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>78</v>
+      </c>
+      <c r="C90">
+        <v>72.63952757335662</v>
+      </c>
+      <c r="D90">
+        <v>5.360472426643383</v>
+      </c>
+      <c r="E90" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91">
+        <v>70</v>
+      </c>
+      <c r="C91">
+        <v>66.61249839600302</v>
+      </c>
+      <c r="D91">
+        <v>3.387501603996981</v>
+      </c>
+      <c r="E91" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>84</v>
+      </c>
+      <c r="C92">
+        <v>74.25290804271199</v>
+      </c>
+      <c r="D92">
+        <v>9.747091957288006</v>
+      </c>
+      <c r="E92" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>76</v>
+      </c>
+      <c r="C93">
+        <v>65.48179631734766</v>
+      </c>
+      <c r="D93">
+        <v>10.51820368265234</v>
+      </c>
+      <c r="E93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94">
+        <v>51</v>
+      </c>
+      <c r="C94">
+        <v>60.90560479632258</v>
+      </c>
+      <c r="D94">
+        <v>9.905604796322578</v>
+      </c>
+      <c r="E94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95">
+        <v>90</v>
+      </c>
+      <c r="C95">
+        <v>66.35637109700828</v>
+      </c>
+      <c r="D95">
+        <v>23.64362890299172</v>
+      </c>
+      <c r="E95" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>70</v>
+      </c>
+      <c r="C96">
+        <v>74.12909789400351</v>
+      </c>
+      <c r="D96">
+        <v>4.129097894003507</v>
+      </c>
+      <c r="E96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>65</v>
+      </c>
+      <c r="C97">
+        <v>76.92642309126086</v>
+      </c>
+      <c r="D97">
+        <v>11.92642309126086</v>
+      </c>
+      <c r="E97" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>57</v>
+      </c>
+      <c r="C98">
+        <v>67.74289360253623</v>
+      </c>
+      <c r="D98">
+        <v>10.74289360253623</v>
+      </c>
+      <c r="E98" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>41</v>
+      </c>
+      <c r="C99">
+        <v>66.73477781333048</v>
+      </c>
+      <c r="D99">
+        <v>25.73477781333048</v>
+      </c>
+      <c r="E99" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>67</v>
+      </c>
+      <c r="C100">
+        <v>69.39980914048031</v>
+      </c>
+      <c r="D100">
+        <v>2.399809140480315</v>
+      </c>
+      <c r="E100" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>51</v>
+      </c>
+      <c r="C101">
+        <v>62.12028493219129</v>
+      </c>
+      <c r="D101">
+        <v>11.12028493219129</v>
+      </c>
+      <c r="E101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>75</v>
+      </c>
+      <c r="C102">
+        <v>69.94018700426282</v>
+      </c>
+      <c r="D102">
+        <v>5.059812995737175</v>
+      </c>
+      <c r="E102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103">
+        <v>58</v>
+      </c>
+      <c r="C103">
+        <v>50.78713694366635</v>
+      </c>
+      <c r="D103">
+        <v>7.212863056333646</v>
+      </c>
+      <c r="E103" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104">
+        <v>65</v>
+      </c>
+      <c r="C104">
+        <v>65.71633159596213</v>
+      </c>
+      <c r="D104">
+        <v>0.7163315959621315</v>
+      </c>
+      <c r="E104" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105">
+        <v>59</v>
+      </c>
+      <c r="C105">
+        <v>63.39168550463763</v>
+      </c>
+      <c r="D105">
+        <v>4.391685504637628</v>
+      </c>
+      <c r="E105" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106">
+        <v>63</v>
+      </c>
+      <c r="C106">
+        <v>57.11925920438436</v>
+      </c>
+      <c r="D106">
+        <v>5.880740795615644</v>
+      </c>
+      <c r="E106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
+        <v>55</v>
+      </c>
+      <c r="C107">
+        <v>58.90028736217789</v>
+      </c>
+      <c r="D107">
+        <v>3.900287362177892</v>
+      </c>
+      <c r="E107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>63</v>
+      </c>
+      <c r="C108">
+        <v>61.49151947615838</v>
+      </c>
+      <c r="D108">
+        <v>1.508480523841619</v>
+      </c>
+      <c r="E108" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>64</v>
+      </c>
+      <c r="C109">
+        <v>68.03683931208897</v>
+      </c>
+      <c r="D109">
+        <v>4.036839312088972</v>
+      </c>
+      <c r="E109" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>64</v>
+      </c>
+      <c r="C110">
+        <v>61.15386899795725</v>
+      </c>
+      <c r="D110">
+        <v>2.846131002042753</v>
+      </c>
+      <c r="E110" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>57</v>
+      </c>
+      <c r="C111">
+        <v>65.84503507217268</v>
+      </c>
+      <c r="D111">
+        <v>8.845035072172678</v>
+      </c>
+      <c r="E111" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>90</v>
+      </c>
+      <c r="C112">
+        <v>69.27284649785024</v>
+      </c>
+      <c r="D112">
+        <v>20.72715350214976</v>
+      </c>
+      <c r="E112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>57</v>
+      </c>
+      <c r="C113">
+        <v>57.52780855748721</v>
+      </c>
+      <c r="D113">
+        <v>0.5278085574872051</v>
+      </c>
+      <c r="E113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>64</v>
+      </c>
+      <c r="C114">
+        <v>60.36765662041046</v>
+      </c>
+      <c r="D114">
+        <v>3.632343379589535</v>
+      </c>
+      <c r="E114" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>66</v>
+      </c>
+      <c r="C115">
+        <v>58.82437862853994</v>
+      </c>
+      <c r="D115">
+        <v>7.175621371460061</v>
+      </c>
+      <c r="E115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>66</v>
+      </c>
+      <c r="C116">
+        <v>54.80637412912798</v>
+      </c>
+      <c r="D116">
+        <v>11.19362587087202</v>
+      </c>
+      <c r="E116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>70</v>
+      </c>
+      <c r="C117">
+        <v>66.03427385343653</v>
+      </c>
+      <c r="D117">
+        <v>3.965726146563469</v>
+      </c>
+      <c r="E117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>53</v>
+      </c>
+      <c r="C118">
+        <v>63.05556895174833</v>
+      </c>
+      <c r="D118">
+        <v>10.05556895174833</v>
+      </c>
+      <c r="E118" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>78</v>
+      </c>
+      <c r="C119">
+        <v>66.92820340403607</v>
+      </c>
+      <c r="D119">
+        <v>11.07179659596393</v>
+      </c>
+      <c r="E119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>70</v>
+      </c>
+      <c r="C120">
+        <v>65.00814420613982</v>
+      </c>
+      <c r="D120">
+        <v>4.991855793860182</v>
+      </c>
+      <c r="E120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>57</v>
+      </c>
+      <c r="C121">
+        <v>61.96405193317347</v>
+      </c>
+      <c r="D121">
+        <v>4.964051933173472</v>
+      </c>
+      <c r="E121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>65</v>
+      </c>
+      <c r="C122">
+        <v>70.09467501275216</v>
+      </c>
+      <c r="D122">
+        <v>5.094675012752163</v>
+      </c>
+      <c r="E122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>65</v>
+      </c>
+      <c r="C123">
+        <v>66.37705537602547</v>
+      </c>
+      <c r="D123">
+        <v>1.377055376025467</v>
+      </c>
+      <c r="E123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124">
+        <v>66</v>
+      </c>
+      <c r="C124">
+        <v>66.45435086165705</v>
+      </c>
+      <c r="D124">
+        <v>0.4543508616570477</v>
+      </c>
+      <c r="E124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>70</v>
+      </c>
+      <c r="C125">
+        <v>65.73732713250291</v>
+      </c>
+      <c r="D125">
+        <v>4.262672867497088</v>
+      </c>
+      <c r="E125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>62</v>
+      </c>
+      <c r="C126">
+        <v>70.21612639170489</v>
+      </c>
+      <c r="D126">
+        <v>8.21612639170489</v>
+      </c>
+      <c r="E126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>86</v>
+      </c>
+      <c r="C127">
+        <v>61.65051194216742</v>
+      </c>
+      <c r="D127">
+        <v>24.34948805783258</v>
+      </c>
+      <c r="E127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>62</v>
+      </c>
+      <c r="C128">
+        <v>60.27756657682138</v>
+      </c>
+      <c r="D128">
+        <v>1.722433423178622</v>
+      </c>
+      <c r="E128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129">
+        <v>67</v>
+      </c>
+      <c r="C129">
+        <v>60.81228968293057</v>
+      </c>
+      <c r="D129">
+        <v>6.187710317069431</v>
+      </c>
+      <c r="E129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130">
+        <v>64</v>
+      </c>
+      <c r="C130">
+        <v>65.65586713711433</v>
+      </c>
+      <c r="D130">
+        <v>1.655867137114328</v>
+      </c>
+      <c r="E130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131">
+        <v>82</v>
+      </c>
+      <c r="C131">
+        <v>66.52534474572947</v>
+      </c>
+      <c r="D131">
+        <v>15.47465525427053</v>
+      </c>
+      <c r="E131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132">
+        <v>52</v>
+      </c>
+      <c r="C132">
+        <v>66.420648900751</v>
+      </c>
+      <c r="D132">
+        <v>14.420648900751</v>
+      </c>
+      <c r="E132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133">
+        <v>63</v>
+      </c>
+      <c r="C133">
+        <v>69.86702733338535</v>
+      </c>
+      <c r="D133">
+        <v>6.867027333385352</v>
+      </c>
+      <c r="E133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134">
+        <v>55</v>
+      </c>
+      <c r="C134">
+        <v>55.25934327638289</v>
+      </c>
+      <c r="D134">
+        <v>0.2593432763828858</v>
+      </c>
+      <c r="E134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135">
+        <v>44</v>
+      </c>
+      <c r="C135">
+        <v>66.25972061822524</v>
+      </c>
+      <c r="D135">
+        <v>22.25972061822524</v>
+      </c>
+      <c r="E135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136">
+        <v>76</v>
+      </c>
+      <c r="C136">
+        <v>67.01149883553134</v>
+      </c>
+      <c r="D136">
+        <v>8.988501164468659</v>
+      </c>
+      <c r="E136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>47</v>
+      </c>
+      <c r="C137">
+        <v>56.63981751555268</v>
+      </c>
+      <c r="D137">
+        <v>9.639817515552679</v>
+      </c>
+      <c r="E137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138">
+        <v>57</v>
+      </c>
+      <c r="C138">
+        <v>68.33503204756536</v>
+      </c>
+      <c r="D138">
+        <v>11.33503204756536</v>
+      </c>
+      <c r="E138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139">
+        <v>70</v>
+      </c>
+      <c r="C139">
+        <v>68.44724741602423</v>
+      </c>
+      <c r="D139">
+        <v>1.552752583975774</v>
+      </c>
+      <c r="E139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140">
+        <v>53</v>
+      </c>
+      <c r="C140">
+        <v>63.41988076694846</v>
+      </c>
+      <c r="D140">
+        <v>10.41988076694846</v>
+      </c>
+      <c r="E140" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141">
+        <v>55</v>
+      </c>
+      <c r="C141">
+        <v>59.1469488520212</v>
+      </c>
+      <c r="D141">
+        <v>4.146948852021197</v>
+      </c>
+      <c r="E141" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142">
+        <v>67</v>
+      </c>
+      <c r="C142">
+        <v>65.1540576171145</v>
+      </c>
+      <c r="D142">
+        <v>1.845942382885497</v>
+      </c>
+      <c r="E142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143">
+        <v>94</v>
+      </c>
+      <c r="C143">
+        <v>82.54583344631965</v>
+      </c>
+      <c r="D143">
+        <v>11.45416655368035</v>
+      </c>
+      <c r="E143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>68</v>
+      </c>
+      <c r="C144">
+        <v>69.19304271373927</v>
+      </c>
+      <c r="D144">
+        <v>1.193042713739274</v>
+      </c>
+      <c r="E144" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145">
+        <v>69</v>
+      </c>
+      <c r="C145">
+        <v>67.18273663256531</v>
+      </c>
+      <c r="D145">
+        <v>1.817263367434691</v>
+      </c>
+      <c r="E145" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146">
+        <v>62</v>
+      </c>
+      <c r="C146">
+        <v>64.99685799947869</v>
+      </c>
+      <c r="D146">
+        <v>2.996857999478692</v>
+      </c>
+      <c r="E146" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147">
+        <v>64</v>
+      </c>
+      <c r="C147">
+        <v>57.89403549690697</v>
+      </c>
+      <c r="D147">
+        <v>6.105964503093027</v>
+      </c>
+      <c r="E147" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148">
+        <v>51</v>
+      </c>
+      <c r="C148">
+        <v>56.34837357783065</v>
+      </c>
+      <c r="D148">
+        <v>5.34837357783065</v>
+      </c>
+      <c r="E148" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149">
+        <v>55</v>
+      </c>
+      <c r="C149">
+        <v>65.97704434062683</v>
+      </c>
+      <c r="D149">
+        <v>10.97704434062683</v>
+      </c>
+      <c r="E149" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150">
+        <v>61</v>
+      </c>
+      <c r="C150">
+        <v>67.09575680444574</v>
+      </c>
+      <c r="D150">
+        <v>6.095756804445742</v>
+      </c>
+      <c r="E150" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151">
+        <v>57</v>
+      </c>
+      <c r="C151">
+        <v>64.40400900140075</v>
+      </c>
+      <c r="D151">
+        <v>7.404009001400752</v>
+      </c>
+      <c r="E151" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152">
+        <v>62</v>
+      </c>
+      <c r="C152">
+        <v>55.10411307662243</v>
+      </c>
+      <c r="D152">
+        <v>6.895886923377567</v>
+      </c>
+      <c r="E152" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153">
+        <v>61</v>
+      </c>
+      <c r="C153">
+        <v>65.13541681975501</v>
+      </c>
+      <c r="D153">
+        <v>4.135416819755008</v>
+      </c>
+      <c r="E153" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154">
+        <v>58</v>
+      </c>
+      <c r="C154">
+        <v>58.24709043160497</v>
+      </c>
+      <c r="D154">
+        <v>0.247090431604974</v>
+      </c>
+      <c r="E154" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155">
+        <v>64</v>
+      </c>
+      <c r="C155">
+        <v>64.70942810101059</v>
+      </c>
+      <c r="D155">
+        <v>0.7094281010105874</v>
+      </c>
+      <c r="E155" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156">
+        <v>64</v>
+      </c>
+      <c r="C156">
+        <v>70.31573569888523</v>
+      </c>
+      <c r="D156">
+        <v>6.315735698885234</v>
+      </c>
+      <c r="E156" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157">
+        <v>60</v>
+      </c>
+      <c r="C157">
+        <v>59.21873096959791</v>
+      </c>
+      <c r="D157">
+        <v>0.7812690304020862</v>
+      </c>
+      <c r="E157" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>78</v>
+      </c>
+      <c r="C158">
+        <v>82.78904562291771</v>
+      </c>
+      <c r="D158">
+        <v>4.789045622917712</v>
+      </c>
+      <c r="E158" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159">
+        <v>77</v>
+      </c>
+      <c r="C159">
+        <v>70.94353479975453</v>
+      </c>
+      <c r="D159">
+        <v>6.056465200245469</v>
+      </c>
+      <c r="E159" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160">
+        <v>84</v>
+      </c>
+      <c r="C160">
+        <v>70.1389552880545</v>
+      </c>
+      <c r="D160">
+        <v>13.8610447119455</v>
+      </c>
+      <c r="E160" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161">
+        <v>70</v>
+      </c>
+      <c r="C161">
+        <v>69.69198052274763</v>
+      </c>
+      <c r="D161">
+        <v>0.3080194772523726</v>
+      </c>
+      <c r="E161" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E161">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"excellent (0 - 5% out)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"satisfactory (5 - 10% out)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"below expectation (10 - 20% out)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"poor (20 - 30% out)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"very poor (over 30% out)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E161"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="6" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>66</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>64.8</v>
+      </c>
+      <c r="D3">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="E3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>66.2</v>
+      </c>
+      <c r="D5">
+        <v>8.799999999999997</v>
+      </c>
+      <c r="E5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>58</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>73.2</v>
+      </c>
+      <c r="D7">
+        <v>22.2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="D8">
+        <v>11.59999999999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>60.8</v>
+      </c>
+      <c r="D10">
+        <v>6.200000000000003</v>
+      </c>
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>55.2</v>
+      </c>
+      <c r="D11">
+        <v>2.799999999999997</v>
+      </c>
+      <c r="E11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>57.6</v>
+      </c>
+      <c r="D13">
+        <v>26.6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>63.8</v>
+      </c>
+      <c r="D14">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="E14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>68.2</v>
+      </c>
+      <c r="D15">
+        <v>10.2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>65.2</v>
+      </c>
+      <c r="D16">
+        <v>21.2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>63.6</v>
+      </c>
+      <c r="D18">
+        <v>0.6000000000000014</v>
+      </c>
+      <c r="E18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <v>49.8</v>
+      </c>
+      <c r="D19">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="E19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>56.4</v>
+      </c>
+      <c r="D20">
+        <v>5.399999999999999</v>
+      </c>
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>67</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>88</v>
+      </c>
+      <c r="C23">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="D23">
+        <v>13.40000000000001</v>
+      </c>
+      <c r="E23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>76</v>
+      </c>
+      <c r="C24">
+        <v>66.2</v>
+      </c>
+      <c r="D24">
+        <v>9.799999999999997</v>
+      </c>
+      <c r="E24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>57.2</v>
+      </c>
+      <c r="D25">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>59</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>63</v>
+      </c>
+      <c r="C27">
+        <v>70.8</v>
+      </c>
+      <c r="D27">
+        <v>7.799999999999997</v>
+      </c>
+      <c r="E27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>84</v>
+      </c>
+      <c r="C28">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="D28">
+        <v>4.599999999999994</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>57.2</v>
+      </c>
+      <c r="D29">
+        <v>12.8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="D30">
+        <v>10.40000000000001</v>
+      </c>
+      <c r="E30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>63</v>
+      </c>
+      <c r="C31">
+        <v>61.4</v>
+      </c>
+      <c r="D31">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>55</v>
+      </c>
+      <c r="C32">
+        <v>71.2</v>
+      </c>
+      <c r="D32">
+        <v>16.2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>65.8</v>
+      </c>
+      <c r="D33">
+        <v>7.200000000000003</v>
+      </c>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>58</v>
+      </c>
+      <c r="C34">
+        <v>59.6</v>
+      </c>
+      <c r="D34">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="E34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>73</v>
+      </c>
+      <c r="C35">
+        <v>70</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>70</v>
+      </c>
+      <c r="C36">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="D36">
+        <v>1.599999999999994</v>
+      </c>
+      <c r="E36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>59.8</v>
+      </c>
+      <c r="D37">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="E37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="D38">
+        <v>14.59999999999999</v>
+      </c>
+      <c r="E38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>71</v>
+      </c>
+      <c r="C39">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <v>75.8</v>
+      </c>
+      <c r="D40">
+        <v>10.8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>61.6</v>
+      </c>
+      <c r="D41">
+        <v>16.6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>85</v>
+      </c>
+      <c r="C42">
+        <v>72.2</v>
+      </c>
+      <c r="D42">
+        <v>12.8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>65</v>
+      </c>
+      <c r="C43">
+        <v>72</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>76</v>
+      </c>
+      <c r="C44">
+        <v>64.8</v>
+      </c>
+      <c r="D44">
+        <v>11.2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>67.2</v>
+      </c>
+      <c r="D45">
+        <v>2.799999999999997</v>
+      </c>
+      <c r="E45" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>67.2</v>
+      </c>
+      <c r="D46">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="E46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>81</v>
+      </c>
+      <c r="C47">
+        <v>68.2</v>
+      </c>
+      <c r="D47">
+        <v>12.8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>65</v>
+      </c>
+      <c r="C48">
+        <v>75.2</v>
+      </c>
+      <c r="D48">
+        <v>10.2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>68</v>
+      </c>
+      <c r="C49">
+        <v>70.2</v>
+      </c>
+      <c r="D49">
+        <v>2.200000000000003</v>
+      </c>
+      <c r="E49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>72</v>
+      </c>
+      <c r="C51">
+        <v>50.8</v>
+      </c>
+      <c r="D51">
+        <v>21.2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D52">
+        <v>1.599999999999994</v>
+      </c>
+      <c r="E52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>87</v>
+      </c>
+      <c r="C53">
+        <v>81.8</v>
+      </c>
+      <c r="D53">
+        <v>5.200000000000003</v>
+      </c>
+      <c r="E53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>62.4</v>
+      </c>
+      <c r="D54">
+        <v>9.399999999999999</v>
+      </c>
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>62</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D56">
+        <v>2.400000000000006</v>
+      </c>
+      <c r="E56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>59.6</v>
+      </c>
+      <c r="D57">
+        <v>2.399999999999999</v>
+      </c>
+      <c r="E57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>27</v>
+      </c>
+      <c r="C58">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="D58">
+        <v>38.40000000000001</v>
+      </c>
+      <c r="E58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>79</v>
+      </c>
+      <c r="C59">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="D59">
+        <v>9.599999999999994</v>
+      </c>
+      <c r="E59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>72</v>
+      </c>
+      <c r="C61">
+        <v>67</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>70</v>
+      </c>
+      <c r="C62">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="D62">
+        <v>14.40000000000001</v>
+      </c>
+      <c r="E62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>76</v>
+      </c>
+      <c r="C63">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D63">
+        <v>8.400000000000006</v>
+      </c>
+      <c r="E63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>85</v>
+      </c>
+      <c r="C64">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D64">
+        <v>3.400000000000006</v>
+      </c>
+      <c r="E64" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>58</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>78</v>
+      </c>
+      <c r="C66">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="D66">
+        <v>13.40000000000001</v>
+      </c>
+      <c r="E66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>63</v>
+      </c>
+      <c r="C67">
+        <v>56.4</v>
+      </c>
+      <c r="D67">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="E67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="D68">
+        <v>5.400000000000006</v>
+      </c>
+      <c r="E68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>85</v>
+      </c>
+      <c r="C69">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="D69">
+        <v>9.400000000000006</v>
+      </c>
+      <c r="E69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>79</v>
+      </c>
+      <c r="C70">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="D70">
+        <v>13.40000000000001</v>
+      </c>
+      <c r="E70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>62.4</v>
+      </c>
+      <c r="D71">
+        <v>7.600000000000001</v>
+      </c>
+      <c r="E71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>65</v>
+      </c>
+      <c r="C72">
+        <v>64.8</v>
+      </c>
+      <c r="D72">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="E72" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <v>69.8</v>
+      </c>
+      <c r="D73">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="E73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>64</v>
+      </c>
+      <c r="C74">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D74">
+        <v>2.400000000000006</v>
+      </c>
+      <c r="E74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>67</v>
+      </c>
+      <c r="C75">
+        <v>67</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>85</v>
+      </c>
+      <c r="C76">
+        <v>68</v>
+      </c>
+      <c r="D76">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>55</v>
+      </c>
+      <c r="C77">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="D77">
+        <v>17.59999999999999</v>
+      </c>
+      <c r="E77" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>55</v>
+      </c>
+      <c r="C78">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="D78">
+        <v>17.40000000000001</v>
+      </c>
+      <c r="E78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>41</v>
+      </c>
+      <c r="C79">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D79">
+        <v>29.59999999999999</v>
+      </c>
+      <c r="E79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>67</v>
+      </c>
+      <c r="C80">
+        <v>64.8</v>
+      </c>
+      <c r="D80">
+        <v>2.200000000000003</v>
+      </c>
+      <c r="E80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>67</v>
+      </c>
+      <c r="C81">
+        <v>56.6</v>
+      </c>
+      <c r="D81">
+        <v>10.4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>70.2</v>
+      </c>
+      <c r="D82">
+        <v>14.8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>50</v>
+      </c>
+      <c r="C83">
+        <v>63.2</v>
+      </c>
+      <c r="D83">
+        <v>13.2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>69</v>
+      </c>
+      <c r="C84">
+        <v>59.6</v>
+      </c>
+      <c r="D84">
+        <v>9.399999999999999</v>
+      </c>
+      <c r="E84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>81</v>
+      </c>
+      <c r="C85">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D85">
+        <v>3.599999999999994</v>
+      </c>
+      <c r="E85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>67</v>
+      </c>
+      <c r="C86">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="D86">
+        <v>1.599999999999994</v>
+      </c>
+      <c r="E86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>51</v>
+      </c>
+      <c r="C87">
+        <v>46.8</v>
+      </c>
+      <c r="D87">
+        <v>4.200000000000003</v>
+      </c>
+      <c r="E87" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88">
+        <v>65</v>
+      </c>
+      <c r="C88">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="D88">
+        <v>7.599999999999994</v>
+      </c>
+      <c r="E88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89">
+        <v>57</v>
+      </c>
+      <c r="C89">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D89">
+        <v>13.59999999999999</v>
+      </c>
+      <c r="E89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>78</v>
+      </c>
+      <c r="C90">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="D90">
+        <v>1.400000000000006</v>
+      </c>
+      <c r="E90" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91">
+        <v>70</v>
+      </c>
+      <c r="C91">
+        <v>65.8</v>
+      </c>
+      <c r="D91">
+        <v>4.200000000000003</v>
+      </c>
+      <c r="E91" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>84</v>
+      </c>
+      <c r="C92">
+        <v>81.8</v>
+      </c>
+      <c r="D92">
+        <v>2.200000000000003</v>
+      </c>
+      <c r="E92" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>76</v>
+      </c>
+      <c r="C93">
+        <v>61.2</v>
+      </c>
+      <c r="D93">
+        <v>14.8</v>
+      </c>
+      <c r="E93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94">
+        <v>51</v>
+      </c>
+      <c r="C94">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="D94">
+        <v>18.59999999999999</v>
+      </c>
+      <c r="E94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95">
+        <v>90</v>
+      </c>
+      <c r="C95">
+        <v>65</v>
+      </c>
+      <c r="D95">
+        <v>25</v>
+      </c>
+      <c r="E95" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>70</v>
+      </c>
+      <c r="C96">
+        <v>74.2</v>
+      </c>
+      <c r="D96">
+        <v>4.200000000000003</v>
+      </c>
+      <c r="E96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>65</v>
+      </c>
+      <c r="C97">
+        <v>84.8</v>
+      </c>
+      <c r="D97">
+        <v>19.8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>57</v>
+      </c>
+      <c r="C98">
+        <v>67.2</v>
+      </c>
+      <c r="D98">
+        <v>10.2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>41</v>
+      </c>
+      <c r="C99">
+        <v>69.8</v>
+      </c>
+      <c r="D99">
+        <v>28.8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>67</v>
+      </c>
+      <c r="C100">
+        <v>65.2</v>
+      </c>
+      <c r="D100">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="E100" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
+        <v>51</v>
+      </c>
+      <c r="C101">
+        <v>54.6</v>
+      </c>
+      <c r="D101">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="E101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>75</v>
+      </c>
+      <c r="C102">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D102">
+        <v>7.599999999999994</v>
+      </c>
+      <c r="E102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103">
+        <v>58</v>
+      </c>
+      <c r="C103">
+        <v>47.2</v>
+      </c>
+      <c r="D103">
+        <v>10.8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104">
+        <v>65</v>
+      </c>
+      <c r="C104">
+        <v>57.8</v>
+      </c>
+      <c r="D104">
+        <v>7.200000000000003</v>
+      </c>
+      <c r="E104" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105">
+        <v>59</v>
+      </c>
+      <c r="C105">
+        <v>56.6</v>
+      </c>
+      <c r="D105">
+        <v>2.399999999999999</v>
+      </c>
+      <c r="E105" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106">
+        <v>63</v>
+      </c>
+      <c r="C106">
+        <v>49.2</v>
+      </c>
+      <c r="D106">
+        <v>13.8</v>
+      </c>
+      <c r="E106" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
+        <v>55</v>
+      </c>
+      <c r="C107">
+        <v>59</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>63</v>
+      </c>
+      <c r="C108">
+        <v>57.4</v>
+      </c>
+      <c r="D108">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="E108" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>64</v>
+      </c>
+      <c r="C109">
+        <v>69.8</v>
+      </c>
+      <c r="D109">
+        <v>5.799999999999997</v>
+      </c>
+      <c r="E109" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>64</v>
+      </c>
+      <c r="C110">
+        <v>61.2</v>
+      </c>
+      <c r="D110">
+        <v>2.799999999999997</v>
+      </c>
+      <c r="E110" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>57</v>
+      </c>
+      <c r="C111">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D111">
+        <v>10.59999999999999</v>
+      </c>
+      <c r="E111" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>90</v>
+      </c>
+      <c r="C112">
+        <v>68.8</v>
+      </c>
+      <c r="D112">
+        <v>21.2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>57</v>
+      </c>
+      <c r="C113">
+        <v>51.8</v>
+      </c>
+      <c r="D113">
+        <v>5.200000000000003</v>
+      </c>
+      <c r="E113" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>64</v>
+      </c>
+      <c r="C114">
+        <v>61.4</v>
+      </c>
+      <c r="D114">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="E114" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>66</v>
+      </c>
+      <c r="C115">
+        <v>57.2</v>
+      </c>
+      <c r="D115">
+        <v>8.799999999999997</v>
+      </c>
+      <c r="E115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>66</v>
+      </c>
+      <c r="C116">
+        <v>51.6</v>
+      </c>
+      <c r="D116">
+        <v>14.4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>70</v>
+      </c>
+      <c r="C117">
+        <v>73.8</v>
+      </c>
+      <c r="D117">
+        <v>3.799999999999997</v>
+      </c>
+      <c r="E117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>53</v>
+      </c>
+      <c r="C118">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D118">
+        <v>11.40000000000001</v>
+      </c>
+      <c r="E118" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>78</v>
+      </c>
+      <c r="C119">
+        <v>61</v>
+      </c>
+      <c r="D119">
+        <v>17</v>
+      </c>
+      <c r="E119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>70</v>
+      </c>
+      <c r="C120">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D120">
+        <v>5.599999999999994</v>
+      </c>
+      <c r="E120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>57</v>
+      </c>
+      <c r="C121">
+        <v>59.6</v>
+      </c>
+      <c r="D121">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="E121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>65</v>
+      </c>
+      <c r="C122">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="D122">
+        <v>7.400000000000006</v>
+      </c>
+      <c r="E122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>65</v>
+      </c>
+      <c r="C123">
+        <v>63.2</v>
+      </c>
+      <c r="D123">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="E123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124">
+        <v>66</v>
+      </c>
+      <c r="C124">
+        <v>63.6</v>
+      </c>
+      <c r="D124">
+        <v>2.399999999999999</v>
+      </c>
+      <c r="E124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>70</v>
+      </c>
+      <c r="C125">
+        <v>75</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>62</v>
+      </c>
+      <c r="C126">
+        <v>68</v>
+      </c>
+      <c r="D126">
+        <v>6</v>
+      </c>
+      <c r="E126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>86</v>
+      </c>
+      <c r="C127">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D127">
+        <v>21.59999999999999</v>
+      </c>
+      <c r="E127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>62</v>
+      </c>
+      <c r="C128">
+        <v>58</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129">
+        <v>67</v>
+      </c>
+      <c r="C129">
+        <v>59.8</v>
+      </c>
+      <c r="D129">
+        <v>7.200000000000003</v>
+      </c>
+      <c r="E129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130">
+        <v>64</v>
+      </c>
+      <c r="C130">
+        <v>62.8</v>
+      </c>
+      <c r="D130">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="E130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131">
+        <v>82</v>
+      </c>
+      <c r="C131">
+        <v>62.2</v>
+      </c>
+      <c r="D131">
+        <v>19.8</v>
+      </c>
+      <c r="E131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132">
+        <v>52</v>
+      </c>
+      <c r="C132">
+        <v>69</v>
+      </c>
+      <c r="D132">
+        <v>17</v>
+      </c>
+      <c r="E132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133">
+        <v>63</v>
+      </c>
+      <c r="C133">
+        <v>66.2</v>
+      </c>
+      <c r="D133">
+        <v>3.200000000000003</v>
+      </c>
+      <c r="E133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134">
+        <v>55</v>
+      </c>
+      <c r="C134">
+        <v>59.6</v>
+      </c>
+      <c r="D134">
+        <v>4.600000000000001</v>
+      </c>
+      <c r="E134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135">
+        <v>44</v>
+      </c>
+      <c r="C135">
+        <v>62.4</v>
+      </c>
+      <c r="D135">
+        <v>18.4</v>
+      </c>
+      <c r="E135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136">
+        <v>76</v>
+      </c>
+      <c r="C136">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D136">
+        <v>8.599999999999994</v>
+      </c>
+      <c r="E136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>47</v>
+      </c>
+      <c r="C137">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="D137">
+        <v>24.59999999999999</v>
+      </c>
+      <c r="E137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138">
+        <v>57</v>
+      </c>
+      <c r="C138">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D138">
+        <v>10.40000000000001</v>
+      </c>
+      <c r="E138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139">
+        <v>70</v>
+      </c>
+      <c r="C139">
+        <v>71.8</v>
+      </c>
+      <c r="D139">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="E139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140">
+        <v>53</v>
+      </c>
+      <c r="C140">
+        <v>59.2</v>
+      </c>
+      <c r="D140">
+        <v>6.200000000000003</v>
+      </c>
+      <c r="E140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141">
+        <v>55</v>
+      </c>
+      <c r="C141">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D141">
+        <v>9.400000000000006</v>
+      </c>
+      <c r="E141" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142">
+        <v>67</v>
+      </c>
+      <c r="C142">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D142">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="E142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143">
+        <v>94</v>
+      </c>
+      <c r="C143">
+        <v>77.2</v>
+      </c>
+      <c r="D143">
+        <v>16.8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144">
+        <v>68</v>
+      </c>
+      <c r="C144">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="D144">
+        <v>1.400000000000006</v>
+      </c>
+      <c r="E144" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145">
+        <v>69</v>
+      </c>
+      <c r="C145">
+        <v>64</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146">
+        <v>62</v>
+      </c>
+      <c r="C146">
+        <v>67.2</v>
+      </c>
+      <c r="D146">
+        <v>5.200000000000003</v>
+      </c>
+      <c r="E146" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147">
+        <v>64</v>
+      </c>
+      <c r="C147">
+        <v>55.4</v>
+      </c>
+      <c r="D147">
+        <v>8.600000000000001</v>
+      </c>
+      <c r="E147" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148">
+        <v>51</v>
+      </c>
+      <c r="C148">
+        <v>55.6</v>
+      </c>
+      <c r="D148">
+        <v>4.600000000000001</v>
+      </c>
+      <c r="E148" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149">
+        <v>55</v>
+      </c>
+      <c r="C149">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D149">
+        <v>15.59999999999999</v>
+      </c>
+      <c r="E149" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150">
+        <v>61</v>
+      </c>
+      <c r="C150">
+        <v>67</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151">
+        <v>57</v>
+      </c>
+      <c r="C151">
+        <v>57.8</v>
+      </c>
+      <c r="D151">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="E151" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152">
+        <v>62</v>
+      </c>
+      <c r="C152">
+        <v>63</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153">
+        <v>61</v>
+      </c>
+      <c r="C153">
+        <v>63.4</v>
+      </c>
+      <c r="D153">
+        <v>2.399999999999999</v>
+      </c>
+      <c r="E153" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154">
+        <v>58</v>
+      </c>
+      <c r="C154">
+        <v>51.8</v>
+      </c>
+      <c r="D154">
+        <v>6.200000000000003</v>
+      </c>
+      <c r="E154" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155">
+        <v>64</v>
+      </c>
+      <c r="C155">
+        <v>70.2</v>
+      </c>
+      <c r="D155">
+        <v>6.200000000000003</v>
+      </c>
+      <c r="E155" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156">
+        <v>64</v>
+      </c>
+      <c r="C156">
+        <v>72</v>
+      </c>
+      <c r="D156">
+        <v>8</v>
+      </c>
+      <c r="E156" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157">
+        <v>60</v>
+      </c>
+      <c r="C157">
+        <v>61.2</v>
+      </c>
+      <c r="D157">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="E157" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158">
+        <v>78</v>
+      </c>
+      <c r="C158">
+        <v>81.2</v>
+      </c>
+      <c r="D158">
+        <v>3.200000000000003</v>
+      </c>
+      <c r="E158" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159">
+        <v>77</v>
+      </c>
+      <c r="C159">
+        <v>83.8</v>
+      </c>
+      <c r="D159">
+        <v>6.799999999999997</v>
+      </c>
+      <c r="E159" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160">
+        <v>84</v>
+      </c>
+      <c r="C160">
+        <v>77</v>
+      </c>
+      <c r="D160">
+        <v>7</v>
+      </c>
+      <c r="E160" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161">
+        <v>70</v>
+      </c>
+      <c r="C161">
+        <v>61.2</v>
+      </c>
+      <c r="D161">
+        <v>8.799999999999997</v>
+      </c>
+      <c r="E161" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E2:E161">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"excellent (0 - 5% out)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"satisfactory (5 - 10% out)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"below expectation (10 - 20% out)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"poor (20 - 30% out)"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"very poor (over 30% out)"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/cw3_predictions.xlsx
+++ b/cw3_predictions.xlsx
@@ -1146,10 +1146,10 @@
         <v>61</v>
       </c>
       <c r="C2">
-        <v>58.77874981469537</v>
+        <v>58.77874981469536</v>
       </c>
       <c r="D2">
-        <v>2.221250185304633</v>
+        <v>2.22125018530464</v>
       </c>
       <c r="E2" t="s">
         <v>174</v>
@@ -1163,10 +1163,10 @@
         <v>58</v>
       </c>
       <c r="C3">
-        <v>58.97689252355099</v>
+        <v>58.97689252355097</v>
       </c>
       <c r="D3">
-        <v>0.9768925235509869</v>
+        <v>0.9768925235509727</v>
       </c>
       <c r="E3" t="s">
         <v>174</v>
@@ -1183,7 +1183,7 @@
         <v>62.31520013028155</v>
       </c>
       <c r="D4">
-        <v>0.3152001302815535</v>
+        <v>0.3152001302815464</v>
       </c>
       <c r="E4" t="s">
         <v>174</v>
@@ -1200,7 +1200,7 @@
         <v>61.53400075887259</v>
       </c>
       <c r="D5">
-        <v>9.465999241127406</v>
+        <v>9.465999241127413</v>
       </c>
       <c r="E5" t="s">
         <v>175</v>
@@ -1214,10 +1214,10 @@
         <v>58</v>
       </c>
       <c r="C6">
-        <v>66.42074605391001</v>
+        <v>66.42074605391002</v>
       </c>
       <c r="D6">
-        <v>8.420746053910008</v>
+        <v>8.420746053910023</v>
       </c>
       <c r="E6" t="s">
         <v>175</v>
@@ -1231,10 +1231,10 @@
         <v>57</v>
       </c>
       <c r="C7">
-        <v>44.58009683071231</v>
+        <v>44.58009683071232</v>
       </c>
       <c r="D7">
-        <v>12.41990316928769</v>
+        <v>12.41990316928768</v>
       </c>
       <c r="E7" t="s">
         <v>176</v>
@@ -1248,10 +1248,10 @@
         <v>53</v>
       </c>
       <c r="C8">
-        <v>63.61850148319597</v>
+        <v>63.61850148319598</v>
       </c>
       <c r="D8">
-        <v>10.61850148319597</v>
+        <v>10.61850148319598</v>
       </c>
       <c r="E8" t="s">
         <v>176</v>
@@ -1265,10 +1265,10 @@
         <v>68</v>
       </c>
       <c r="C9">
-        <v>62.92007693473693</v>
+        <v>62.9200769347369</v>
       </c>
       <c r="D9">
-        <v>5.079923065263074</v>
+        <v>5.079923065263095</v>
       </c>
       <c r="E9" t="s">
         <v>175</v>
@@ -1316,10 +1316,10 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>63.0942571264501</v>
+        <v>63.09425712645009</v>
       </c>
       <c r="D12">
-        <v>1.905742873549897</v>
+        <v>1.905742873549912</v>
       </c>
       <c r="E12" t="s">
         <v>174</v>
@@ -1333,10 +1333,10 @@
         <v>44</v>
       </c>
       <c r="C13">
-        <v>73.37346870308328</v>
+        <v>73.37346870308326</v>
       </c>
       <c r="D13">
-        <v>29.37346870308328</v>
+        <v>29.37346870308326</v>
       </c>
       <c r="E13" t="s">
         <v>177</v>
@@ -1350,10 +1350,10 @@
         <v>60</v>
       </c>
       <c r="C14">
-        <v>67.34578368015188</v>
+        <v>67.3457836801519</v>
       </c>
       <c r="D14">
-        <v>7.345783680151882</v>
+        <v>7.345783680151897</v>
       </c>
       <c r="E14" t="s">
         <v>175</v>
@@ -1367,10 +1367,10 @@
         <v>66</v>
       </c>
       <c r="C15">
-        <v>59.86383217612144</v>
+        <v>59.86383217612141</v>
       </c>
       <c r="D15">
-        <v>6.136167823878559</v>
+        <v>6.136167823878594</v>
       </c>
       <c r="E15" t="s">
         <v>175</v>
@@ -1384,10 +1384,10 @@
         <v>58</v>
       </c>
       <c r="C16">
-        <v>63.03129261291427</v>
+        <v>63.03129261291426</v>
       </c>
       <c r="D16">
-        <v>5.031292612914271</v>
+        <v>5.031292612914257</v>
       </c>
       <c r="E16" t="s">
         <v>175</v>
@@ -1401,10 +1401,10 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>54.37311332884647</v>
+        <v>54.37311332884646</v>
       </c>
       <c r="D17">
-        <v>5.626886671153528</v>
+        <v>5.626886671153535</v>
       </c>
       <c r="E17" t="s">
         <v>175</v>
@@ -1418,10 +1418,10 @@
         <v>49</v>
       </c>
       <c r="C18">
-        <v>57.31409200747915</v>
+        <v>57.31409200747913</v>
       </c>
       <c r="D18">
-        <v>8.314092007479147</v>
+        <v>8.314092007479132</v>
       </c>
       <c r="E18" t="s">
         <v>175</v>
@@ -1452,10 +1452,10 @@
         <v>51</v>
       </c>
       <c r="C20">
-        <v>66.28799325938218</v>
+        <v>66.28799325938216</v>
       </c>
       <c r="D20">
-        <v>15.28799325938218</v>
+        <v>15.28799325938216</v>
       </c>
       <c r="E20" t="s">
         <v>176</v>
@@ -1486,10 +1486,10 @@
         <v>75</v>
       </c>
       <c r="C22">
-        <v>74.69965367621862</v>
+        <v>74.69965367621859</v>
       </c>
       <c r="D22">
-        <v>0.3003463237813833</v>
+        <v>0.3003463237814117</v>
       </c>
       <c r="E22" t="s">
         <v>174</v>
@@ -1503,10 +1503,10 @@
         <v>59</v>
       </c>
       <c r="C23">
-        <v>59.14044519294001</v>
+        <v>59.14044519294</v>
       </c>
       <c r="D23">
-        <v>0.1404451929400068</v>
+        <v>0.1404451929399997</v>
       </c>
       <c r="E23" t="s">
         <v>174</v>
@@ -1520,10 +1520,10 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>55.53128788008457</v>
+        <v>55.53128788008456</v>
       </c>
       <c r="D24">
-        <v>30.53128788008457</v>
+        <v>30.53128788008456</v>
       </c>
       <c r="E24" t="s">
         <v>178</v>
@@ -1537,10 +1537,10 @@
         <v>76</v>
       </c>
       <c r="C25">
-        <v>70.40533180732311</v>
+        <v>70.40533180732309</v>
       </c>
       <c r="D25">
-        <v>5.594668192676892</v>
+        <v>5.594668192676906</v>
       </c>
       <c r="E25" t="s">
         <v>175</v>
@@ -1557,7 +1557,7 @@
         <v>60.35148907991591</v>
       </c>
       <c r="D26">
-        <v>9.648510920084085</v>
+        <v>9.648510920084092</v>
       </c>
       <c r="E26" t="s">
         <v>175</v>
@@ -1571,10 +1571,10 @@
         <v>73</v>
       </c>
       <c r="C27">
-        <v>74.38878480886486</v>
+        <v>74.38878480886483</v>
       </c>
       <c r="D27">
-        <v>1.388784808864855</v>
+        <v>1.388784808864827</v>
       </c>
       <c r="E27" t="s">
         <v>174</v>
@@ -1588,10 +1588,10 @@
         <v>67</v>
       </c>
       <c r="C28">
-        <v>65.62602722433269</v>
+        <v>65.6260272243327</v>
       </c>
       <c r="D28">
-        <v>1.373972775667312</v>
+        <v>1.373972775667298</v>
       </c>
       <c r="E28" t="s">
         <v>174</v>
@@ -1605,10 +1605,10 @@
         <v>55</v>
       </c>
       <c r="C29">
-        <v>63.76032914587102</v>
+        <v>63.76032914587103</v>
       </c>
       <c r="D29">
-        <v>8.760329145871019</v>
+        <v>8.760329145871026</v>
       </c>
       <c r="E29" t="s">
         <v>175</v>
@@ -1622,10 +1622,10 @@
         <v>58</v>
       </c>
       <c r="C30">
-        <v>56.76990366672769</v>
+        <v>56.7699036667277</v>
       </c>
       <c r="D30">
-        <v>1.230096333272314</v>
+        <v>1.2300963332723</v>
       </c>
       <c r="E30" t="s">
         <v>174</v>
@@ -1639,10 +1639,10 @@
         <v>58</v>
       </c>
       <c r="C31">
-        <v>57.68654885165278</v>
+        <v>57.68654885165277</v>
       </c>
       <c r="D31">
-        <v>0.3134511483472195</v>
+        <v>0.3134511483472266</v>
       </c>
       <c r="E31" t="s">
         <v>174</v>
@@ -1656,10 +1656,10 @@
         <v>76</v>
       </c>
       <c r="C32">
-        <v>70.58266185896341</v>
+        <v>70.58266185896338</v>
       </c>
       <c r="D32">
-        <v>5.417338141036595</v>
+        <v>5.417338141036623</v>
       </c>
       <c r="E32" t="s">
         <v>175</v>
@@ -1690,10 +1690,10 @@
         <v>53</v>
       </c>
       <c r="C34">
-        <v>55.43796980939153</v>
+        <v>55.43796980939152</v>
       </c>
       <c r="D34">
-        <v>2.437969809391525</v>
+        <v>2.437969809391518</v>
       </c>
       <c r="E34" t="s">
         <v>174</v>
@@ -1707,10 +1707,10 @@
         <v>73</v>
       </c>
       <c r="C35">
-        <v>66.07025310617803</v>
+        <v>66.070253106178</v>
       </c>
       <c r="D35">
-        <v>6.929746893821971</v>
+        <v>6.929746893821999</v>
       </c>
       <c r="E35" t="s">
         <v>175</v>
@@ -1724,10 +1724,10 @@
         <v>84</v>
       </c>
       <c r="C36">
-        <v>78.61132480609405</v>
+        <v>78.61132480609402</v>
       </c>
       <c r="D36">
-        <v>5.388675193905954</v>
+        <v>5.388675193905982</v>
       </c>
       <c r="E36" t="s">
         <v>175</v>
@@ -1775,10 +1775,10 @@
         <v>73</v>
       </c>
       <c r="C39">
-        <v>72.63958164215974</v>
+        <v>72.63958164215971</v>
       </c>
       <c r="D39">
-        <v>0.3604183578402598</v>
+        <v>0.3604183578402882</v>
       </c>
       <c r="E39" t="s">
         <v>174</v>
@@ -1809,10 +1809,10 @@
         <v>88</v>
       </c>
       <c r="C41">
-        <v>75.9332431457597</v>
+        <v>75.93324314575969</v>
       </c>
       <c r="D41">
-        <v>12.0667568542403</v>
+        <v>12.06675685424031</v>
       </c>
       <c r="E41" t="s">
         <v>176</v>
@@ -1826,10 +1826,10 @@
         <v>71</v>
       </c>
       <c r="C42">
-        <v>74.06536192408655</v>
+        <v>74.06536192408652</v>
       </c>
       <c r="D42">
-        <v>3.065361924086545</v>
+        <v>3.065361924086517</v>
       </c>
       <c r="E42" t="s">
         <v>174</v>
@@ -1843,10 +1843,10 @@
         <v>58</v>
       </c>
       <c r="C43">
-        <v>63.85321321792199</v>
+        <v>63.853213217922</v>
       </c>
       <c r="D43">
-        <v>5.85321321792199</v>
+        <v>5.853213217921997</v>
       </c>
       <c r="E43" t="s">
         <v>175</v>
@@ -1894,10 +1894,10 @@
         <v>56</v>
       </c>
       <c r="C46">
-        <v>55.18018486036446</v>
+        <v>55.18018486036443</v>
       </c>
       <c r="D46">
-        <v>0.8198151396355442</v>
+        <v>0.8198151396355655</v>
       </c>
       <c r="E46" t="s">
         <v>174</v>
@@ -1911,10 +1911,10 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>43.27878955868575</v>
+        <v>43.2787895586858</v>
       </c>
       <c r="D47">
-        <v>7.721210441314248</v>
+        <v>7.721210441314199</v>
       </c>
       <c r="E47" t="s">
         <v>175</v>
@@ -1928,10 +1928,10 @@
         <v>65</v>
       </c>
       <c r="C48">
-        <v>77.83290497652006</v>
+        <v>77.83290497652004</v>
       </c>
       <c r="D48">
-        <v>12.83290497652006</v>
+        <v>12.83290497652004</v>
       </c>
       <c r="E48" t="s">
         <v>176</v>
@@ -1965,7 +1965,7 @@
         <v>53.74443632814206</v>
       </c>
       <c r="D50">
-        <v>2.744436328142065</v>
+        <v>2.744436328142058</v>
       </c>
       <c r="E50" t="s">
         <v>174</v>
@@ -1979,10 +1979,10 @@
         <v>75</v>
       </c>
       <c r="C51">
-        <v>60.95954600374191</v>
+        <v>60.95954600374192</v>
       </c>
       <c r="D51">
-        <v>14.04045399625809</v>
+        <v>14.04045399625808</v>
       </c>
       <c r="E51" t="s">
         <v>176</v>
@@ -1996,10 +1996,10 @@
         <v>63</v>
       </c>
       <c r="C52">
-        <v>60.00332332032376</v>
+        <v>60.00332332032374</v>
       </c>
       <c r="D52">
-        <v>2.996676679676241</v>
+        <v>2.996676679676256</v>
       </c>
       <c r="E52" t="s">
         <v>174</v>
@@ -2013,10 +2013,10 @@
         <v>41</v>
       </c>
       <c r="C53">
-        <v>54.18353827390325</v>
+        <v>54.18353827390323</v>
       </c>
       <c r="D53">
-        <v>13.18353827390325</v>
+        <v>13.18353827390323</v>
       </c>
       <c r="E53" t="s">
         <v>176</v>
@@ -2030,10 +2030,10 @@
         <v>63</v>
       </c>
       <c r="C54">
-        <v>67.97371423027087</v>
+        <v>67.97371423027086</v>
       </c>
       <c r="D54">
-        <v>4.973714230270872</v>
+        <v>4.973714230270858</v>
       </c>
       <c r="E54" t="s">
         <v>174</v>
@@ -2064,10 +2064,10 @@
         <v>81</v>
       </c>
       <c r="C56">
-        <v>64.55081274348139</v>
+        <v>64.55081274348137</v>
       </c>
       <c r="D56">
-        <v>16.44918725651861</v>
+        <v>16.44918725651863</v>
       </c>
       <c r="E56" t="s">
         <v>176</v>
@@ -2081,10 +2081,10 @@
         <v>65</v>
       </c>
       <c r="C57">
-        <v>70.29477818429406</v>
+        <v>70.29477818429405</v>
       </c>
       <c r="D57">
-        <v>5.29477818429406</v>
+        <v>5.294778184294046</v>
       </c>
       <c r="E57" t="s">
         <v>175</v>
@@ -2098,10 +2098,10 @@
         <v>68</v>
       </c>
       <c r="C58">
-        <v>67.58525604337001</v>
+        <v>67.58525604336998</v>
       </c>
       <c r="D58">
-        <v>0.4147439566299909</v>
+        <v>0.4147439566300193</v>
       </c>
       <c r="E58" t="s">
         <v>174</v>
@@ -2115,10 +2115,10 @@
         <v>37</v>
       </c>
       <c r="C59">
-        <v>40.34176447477116</v>
+        <v>40.34176447477117</v>
       </c>
       <c r="D59">
-        <v>3.341764474771161</v>
+        <v>3.341764474771175</v>
       </c>
       <c r="E59" t="s">
         <v>174</v>
@@ -2132,10 +2132,10 @@
         <v>72</v>
       </c>
       <c r="C60">
-        <v>60.21188244988871</v>
+        <v>60.21188244988869</v>
       </c>
       <c r="D60">
-        <v>11.78811755011129</v>
+        <v>11.78811755011131</v>
       </c>
       <c r="E60" t="s">
         <v>176</v>
@@ -2149,10 +2149,10 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>60.74971773576956</v>
+        <v>60.74971773576955</v>
       </c>
       <c r="D61">
-        <v>4.250282264230435</v>
+        <v>4.250282264230449</v>
       </c>
       <c r="E61" t="s">
         <v>174</v>
@@ -2166,10 +2166,10 @@
         <v>87</v>
       </c>
       <c r="C62">
-        <v>77.17523769099159</v>
+        <v>77.17523769099158</v>
       </c>
       <c r="D62">
-        <v>9.824762309008406</v>
+        <v>9.82476230900842</v>
       </c>
       <c r="E62" t="s">
         <v>175</v>
@@ -2200,10 +2200,10 @@
         <v>54</v>
       </c>
       <c r="C64">
-        <v>59.69442895024351</v>
+        <v>59.69442895024349</v>
       </c>
       <c r="D64">
-        <v>5.694428950243513</v>
+        <v>5.694428950243491</v>
       </c>
       <c r="E64" t="s">
         <v>175</v>
@@ -2217,10 +2217,10 @@
         <v>65</v>
       </c>
       <c r="C65">
-        <v>73.56124178380892</v>
+        <v>73.56124178380888</v>
       </c>
       <c r="D65">
-        <v>8.561241783808924</v>
+        <v>8.561241783808882</v>
       </c>
       <c r="E65" t="s">
         <v>175</v>
@@ -2234,10 +2234,10 @@
         <v>62</v>
       </c>
       <c r="C66">
-        <v>59.87158992411224</v>
+        <v>59.87158992411223</v>
       </c>
       <c r="D66">
-        <v>2.128410075887764</v>
+        <v>2.128410075887771</v>
       </c>
       <c r="E66" t="s">
         <v>174</v>
@@ -2251,10 +2251,10 @@
         <v>27</v>
       </c>
       <c r="C67">
-        <v>56.26504978104904</v>
+        <v>56.26504978104903</v>
       </c>
       <c r="D67">
-        <v>29.26504978104904</v>
+        <v>29.26504978104903</v>
       </c>
       <c r="E67" t="s">
         <v>177</v>
@@ -2285,10 +2285,10 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>68.84091753607916</v>
+        <v>68.84091753607913</v>
       </c>
       <c r="D69">
-        <v>1.159082463920839</v>
+        <v>1.159082463920868</v>
       </c>
       <c r="E69" t="s">
         <v>174</v>
@@ -2302,10 +2302,10 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>69.27056018779803</v>
+        <v>69.270560187798</v>
       </c>
       <c r="D70">
-        <v>2.729439812201974</v>
+        <v>2.729439812202003</v>
       </c>
       <c r="E70" t="s">
         <v>174</v>
@@ -2319,10 +2319,10 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>81.47995845523381</v>
+        <v>81.47995845523378</v>
       </c>
       <c r="D71">
-        <v>11.47995845523381</v>
+        <v>11.47995845523378</v>
       </c>
       <c r="E71" t="s">
         <v>176</v>
@@ -2336,10 +2336,10 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>72.46736535557361</v>
+        <v>72.46736535557359</v>
       </c>
       <c r="D72">
-        <v>3.532634644426395</v>
+        <v>3.532634644426409</v>
       </c>
       <c r="E72" t="s">
         <v>174</v>
@@ -2353,10 +2353,10 @@
         <v>85</v>
       </c>
       <c r="C73">
-        <v>75.9149038325277</v>
+        <v>75.91490383252767</v>
       </c>
       <c r="D73">
-        <v>9.085096167472301</v>
+        <v>9.085096167472329</v>
       </c>
       <c r="E73" t="s">
         <v>175</v>
@@ -2370,10 +2370,10 @@
         <v>63</v>
       </c>
       <c r="C74">
-        <v>59.99808741968794</v>
+        <v>59.99808741968793</v>
       </c>
       <c r="D74">
-        <v>3.001912580312059</v>
+        <v>3.001912580312073</v>
       </c>
       <c r="E74" t="s">
         <v>174</v>
@@ -2387,10 +2387,10 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>73.81820567761693</v>
+        <v>73.8182056776169</v>
       </c>
       <c r="D75">
-        <v>4.18179432238307</v>
+        <v>4.181794322383098</v>
       </c>
       <c r="E75" t="s">
         <v>174</v>
@@ -2404,10 +2404,10 @@
         <v>63</v>
       </c>
       <c r="C76">
-        <v>61.65493484613263</v>
+        <v>61.65493484613261</v>
       </c>
       <c r="D76">
-        <v>1.345065153867367</v>
+        <v>1.345065153867388</v>
       </c>
       <c r="E76" t="s">
         <v>174</v>
@@ -2421,10 +2421,10 @@
         <v>68</v>
       </c>
       <c r="C77">
-        <v>66.69986069156654</v>
+        <v>66.69986069156653</v>
       </c>
       <c r="D77">
-        <v>1.300139308433458</v>
+        <v>1.300139308433472</v>
       </c>
       <c r="E77" t="s">
         <v>174</v>
@@ -2438,10 +2438,10 @@
         <v>85</v>
       </c>
       <c r="C78">
-        <v>84.67396917753575</v>
+        <v>84.67396917753572</v>
       </c>
       <c r="D78">
-        <v>0.3260308224642472</v>
+        <v>0.3260308224642756</v>
       </c>
       <c r="E78" t="s">
         <v>174</v>
@@ -2455,10 +2455,10 @@
         <v>79</v>
       </c>
       <c r="C79">
-        <v>64.17744546964394</v>
+        <v>64.17744546964393</v>
       </c>
       <c r="D79">
-        <v>14.82255453035606</v>
+        <v>14.82255453035607</v>
       </c>
       <c r="E79" t="s">
         <v>176</v>
@@ -2472,10 +2472,10 @@
         <v>70</v>
       </c>
       <c r="C80">
-        <v>67.9096007551711</v>
+        <v>67.90960075517108</v>
       </c>
       <c r="D80">
-        <v>2.090399244828902</v>
+        <v>2.090399244828916</v>
       </c>
       <c r="E80" t="s">
         <v>174</v>
@@ -2489,10 +2489,10 @@
         <v>65</v>
       </c>
       <c r="C81">
-        <v>67.97972384409955</v>
+        <v>67.97972384409954</v>
       </c>
       <c r="D81">
-        <v>2.979723844099553</v>
+        <v>2.979723844099539</v>
       </c>
       <c r="E81" t="s">
         <v>174</v>
@@ -2506,10 +2506,10 @@
         <v>70</v>
       </c>
       <c r="C82">
-        <v>72.19436001563149</v>
+        <v>72.19436001563146</v>
       </c>
       <c r="D82">
-        <v>2.194360015631489</v>
+        <v>2.19436001563146</v>
       </c>
       <c r="E82" t="s">
         <v>174</v>
@@ -2540,10 +2540,10 @@
         <v>67</v>
       </c>
       <c r="C84">
-        <v>59.85622972838542</v>
+        <v>59.85622972838539</v>
       </c>
       <c r="D84">
-        <v>7.143770271614585</v>
+        <v>7.143770271614606</v>
       </c>
       <c r="E84" t="s">
         <v>175</v>
@@ -2557,10 +2557,10 @@
         <v>85</v>
       </c>
       <c r="C85">
-        <v>70.30830195069755</v>
+        <v>70.30830195069754</v>
       </c>
       <c r="D85">
-        <v>14.69169804930245</v>
+        <v>14.69169804930246</v>
       </c>
       <c r="E85" t="s">
         <v>176</v>
@@ -2574,10 +2574,10 @@
         <v>55</v>
       </c>
       <c r="C86">
-        <v>68.86083325423981</v>
+        <v>68.86083325423979</v>
       </c>
       <c r="D86">
-        <v>13.86083325423981</v>
+        <v>13.86083325423979</v>
       </c>
       <c r="E86" t="s">
         <v>176</v>
@@ -2591,10 +2591,10 @@
         <v>55</v>
       </c>
       <c r="C87">
-        <v>68.90382992233204</v>
+        <v>68.90382992233199</v>
       </c>
       <c r="D87">
-        <v>13.90382992233204</v>
+        <v>13.90382992233199</v>
       </c>
       <c r="E87" t="s">
         <v>176</v>
@@ -2608,10 +2608,10 @@
         <v>41</v>
       </c>
       <c r="C88">
-        <v>66.06650751986771</v>
+        <v>66.06650751986767</v>
       </c>
       <c r="D88">
-        <v>25.06650751986771</v>
+        <v>25.06650751986767</v>
       </c>
       <c r="E88" t="s">
         <v>177</v>
@@ -2642,10 +2642,10 @@
         <v>67</v>
       </c>
       <c r="C90">
-        <v>65.05307787389268</v>
+        <v>65.05307787389265</v>
       </c>
       <c r="D90">
-        <v>1.946922126107324</v>
+        <v>1.946922126107353</v>
       </c>
       <c r="E90" t="s">
         <v>174</v>
@@ -2659,10 +2659,10 @@
         <v>85</v>
       </c>
       <c r="C91">
-        <v>68.46958708161313</v>
+        <v>68.4695870816131</v>
       </c>
       <c r="D91">
-        <v>16.53041291838687</v>
+        <v>16.5304129183869</v>
       </c>
       <c r="E91" t="s">
         <v>176</v>
@@ -2676,10 +2676,10 @@
         <v>50</v>
       </c>
       <c r="C92">
-        <v>63.18439408888663</v>
+        <v>63.18439408888661</v>
       </c>
       <c r="D92">
-        <v>13.18439408888663</v>
+        <v>13.18439408888661</v>
       </c>
       <c r="E92" t="s">
         <v>176</v>
@@ -2693,10 +2693,10 @@
         <v>69</v>
       </c>
       <c r="C93">
-        <v>58.78589504205503</v>
+        <v>58.78589504205502</v>
       </c>
       <c r="D93">
-        <v>10.21410495794497</v>
+        <v>10.21410495794498</v>
       </c>
       <c r="E93" t="s">
         <v>176</v>
@@ -2710,10 +2710,10 @@
         <v>81</v>
       </c>
       <c r="C94">
-        <v>81.38646815730257</v>
+        <v>81.38646815730255</v>
       </c>
       <c r="D94">
-        <v>0.3864681573025734</v>
+        <v>0.386468157302545</v>
       </c>
       <c r="E94" t="s">
         <v>174</v>
@@ -2727,10 +2727,10 @@
         <v>67</v>
       </c>
       <c r="C95">
-        <v>60.93299062163491</v>
+        <v>60.9329906216349</v>
       </c>
       <c r="D95">
-        <v>6.067009378365086</v>
+        <v>6.0670093783651</v>
       </c>
       <c r="E95" t="s">
         <v>175</v>
@@ -2744,10 +2744,10 @@
         <v>51</v>
       </c>
       <c r="C96">
-        <v>57.84904338707302</v>
+        <v>57.849043387073</v>
       </c>
       <c r="D96">
-        <v>6.849043387073017</v>
+        <v>6.849043387072996</v>
       </c>
       <c r="E96" t="s">
         <v>175</v>
@@ -2761,10 +2761,10 @@
         <v>65</v>
       </c>
       <c r="C97">
-        <v>73.71897348556712</v>
+        <v>73.71897348556709</v>
       </c>
       <c r="D97">
-        <v>8.718973485567119</v>
+        <v>8.718973485567091</v>
       </c>
       <c r="E97" t="s">
         <v>175</v>
@@ -2778,10 +2778,10 @@
         <v>57</v>
       </c>
       <c r="C98">
-        <v>74.54285163894122</v>
+        <v>74.54285163894119</v>
       </c>
       <c r="D98">
-        <v>17.54285163894122</v>
+        <v>17.54285163894119</v>
       </c>
       <c r="E98" t="s">
         <v>176</v>
@@ -2795,10 +2795,10 @@
         <v>78</v>
       </c>
       <c r="C99">
-        <v>76.70073791132637</v>
+        <v>76.70073791132636</v>
       </c>
       <c r="D99">
-        <v>1.299262088673629</v>
+        <v>1.299262088673643</v>
       </c>
       <c r="E99" t="s">
         <v>174</v>
@@ -2812,10 +2812,10 @@
         <v>70</v>
       </c>
       <c r="C100">
-        <v>65.59456204560605</v>
+        <v>65.59456204560603</v>
       </c>
       <c r="D100">
-        <v>4.405437954393946</v>
+        <v>4.405437954393975</v>
       </c>
       <c r="E100" t="s">
         <v>174</v>
@@ -2829,10 +2829,10 @@
         <v>84</v>
       </c>
       <c r="C101">
-        <v>82.22397882254758</v>
+        <v>82.22397882254755</v>
       </c>
       <c r="D101">
-        <v>1.776021177452421</v>
+        <v>1.776021177452449</v>
       </c>
       <c r="E101" t="s">
         <v>174</v>
@@ -2846,10 +2846,10 @@
         <v>76</v>
       </c>
       <c r="C102">
-        <v>61.91553100644057</v>
+        <v>61.91553100644056</v>
       </c>
       <c r="D102">
-        <v>14.08446899355943</v>
+        <v>14.08446899355944</v>
       </c>
       <c r="E102" t="s">
         <v>176</v>
@@ -2863,10 +2863,10 @@
         <v>51</v>
       </c>
       <c r="C103">
-        <v>64.09223953791133</v>
+        <v>64.0922395379113</v>
       </c>
       <c r="D103">
-        <v>13.09223953791133</v>
+        <v>13.0922395379113</v>
       </c>
       <c r="E103" t="s">
         <v>176</v>
@@ -2880,10 +2880,10 @@
         <v>90</v>
       </c>
       <c r="C104">
-        <v>68.94368866590345</v>
+        <v>68.94368866590342</v>
       </c>
       <c r="D104">
-        <v>21.05631133409655</v>
+        <v>21.05631133409658</v>
       </c>
       <c r="E104" t="s">
         <v>177</v>
@@ -2897,10 +2897,10 @@
         <v>70</v>
       </c>
       <c r="C105">
-        <v>74.54024604890216</v>
+        <v>74.54024604890215</v>
       </c>
       <c r="D105">
-        <v>4.540246048902162</v>
+        <v>4.540246048902148</v>
       </c>
       <c r="E105" t="s">
         <v>174</v>
@@ -2914,10 +2914,10 @@
         <v>65</v>
       </c>
       <c r="C106">
-        <v>78.44873851343058</v>
+        <v>78.44873851343056</v>
       </c>
       <c r="D106">
-        <v>13.44873851343058</v>
+        <v>13.44873851343056</v>
       </c>
       <c r="E106" t="s">
         <v>176</v>
@@ -2931,10 +2931,10 @@
         <v>57</v>
       </c>
       <c r="C107">
-        <v>70.56083780792484</v>
+        <v>70.56083780792481</v>
       </c>
       <c r="D107">
-        <v>13.56083780792484</v>
+        <v>13.56083780792481</v>
       </c>
       <c r="E107" t="s">
         <v>176</v>
@@ -2948,10 +2948,10 @@
         <v>41</v>
       </c>
       <c r="C108">
-        <v>59.53234400114918</v>
+        <v>59.53234400114916</v>
       </c>
       <c r="D108">
-        <v>18.53234400114918</v>
+        <v>18.53234400114916</v>
       </c>
       <c r="E108" t="s">
         <v>176</v>
@@ -2965,10 +2965,10 @@
         <v>67</v>
       </c>
       <c r="C109">
-        <v>71.96866105811523</v>
+        <v>71.96866105811522</v>
       </c>
       <c r="D109">
-        <v>4.968661058115231</v>
+        <v>4.968661058115217</v>
       </c>
       <c r="E109" t="s">
         <v>174</v>
@@ -2982,10 +2982,10 @@
         <v>51</v>
       </c>
       <c r="C110">
-        <v>63.48253538727156</v>
+        <v>63.48253538727153</v>
       </c>
       <c r="D110">
-        <v>12.48253538727156</v>
+        <v>12.48253538727153</v>
       </c>
       <c r="E110" t="s">
         <v>176</v>
@@ -2999,10 +2999,10 @@
         <v>75</v>
       </c>
       <c r="C111">
-        <v>73.65866160481306</v>
+        <v>73.65866160481303</v>
       </c>
       <c r="D111">
-        <v>1.341338395186938</v>
+        <v>1.341338395186966</v>
       </c>
       <c r="E111" t="s">
         <v>174</v>
@@ -3016,10 +3016,10 @@
         <v>58</v>
       </c>
       <c r="C112">
-        <v>58.94101698606066</v>
+        <v>58.94101698606065</v>
       </c>
       <c r="D112">
-        <v>0.9410169860606601</v>
+        <v>0.9410169860606459</v>
       </c>
       <c r="E112" t="s">
         <v>174</v>
@@ -3050,10 +3050,10 @@
         <v>59</v>
       </c>
       <c r="C114">
-        <v>61.31677568300604</v>
+        <v>61.31677568300603</v>
       </c>
       <c r="D114">
-        <v>2.316775683006043</v>
+        <v>2.316775683006028</v>
       </c>
       <c r="E114" t="s">
         <v>174</v>
@@ -3067,10 +3067,10 @@
         <v>63</v>
       </c>
       <c r="C115">
-        <v>59.7308717947988</v>
+        <v>59.73087179479879</v>
       </c>
       <c r="D115">
-        <v>3.269128205201199</v>
+        <v>3.269128205201213</v>
       </c>
       <c r="E115" t="s">
         <v>174</v>
@@ -3084,10 +3084,10 @@
         <v>55</v>
       </c>
       <c r="C116">
-        <v>59.99564466434367</v>
+        <v>59.99564466434366</v>
       </c>
       <c r="D116">
-        <v>4.995644664343672</v>
+        <v>4.995644664343665</v>
       </c>
       <c r="E116" t="s">
         <v>174</v>
@@ -3101,10 +3101,10 @@
         <v>63</v>
       </c>
       <c r="C117">
-        <v>61.9664413045457</v>
+        <v>61.96644130454571</v>
       </c>
       <c r="D117">
-        <v>1.033558695454296</v>
+        <v>1.033558695454289</v>
       </c>
       <c r="E117" t="s">
         <v>174</v>
@@ -3118,10 +3118,10 @@
         <v>64</v>
       </c>
       <c r="C118">
-        <v>69.09560174324062</v>
+        <v>69.09560174324061</v>
       </c>
       <c r="D118">
-        <v>5.095601743240621</v>
+        <v>5.095601743240607</v>
       </c>
       <c r="E118" t="s">
         <v>175</v>
@@ -3135,10 +3135,10 @@
         <v>64</v>
       </c>
       <c r="C119">
-        <v>57.7422162965258</v>
+        <v>57.74221629652578</v>
       </c>
       <c r="D119">
-        <v>6.257783703474203</v>
+        <v>6.257783703474217</v>
       </c>
       <c r="E119" t="s">
         <v>175</v>
@@ -3152,10 +3152,10 @@
         <v>57</v>
       </c>
       <c r="C120">
-        <v>64.96803097748194</v>
+        <v>64.96803097748193</v>
       </c>
       <c r="D120">
-        <v>7.968030977481945</v>
+        <v>7.968030977481931</v>
       </c>
       <c r="E120" t="s">
         <v>175</v>
@@ -3169,10 +3169,10 @@
         <v>90</v>
       </c>
       <c r="C121">
-        <v>73.31533593822395</v>
+        <v>73.31533593822394</v>
       </c>
       <c r="D121">
-        <v>16.68466406177605</v>
+        <v>16.68466406177606</v>
       </c>
       <c r="E121" t="s">
         <v>176</v>
@@ -3203,10 +3203,10 @@
         <v>64</v>
       </c>
       <c r="C123">
-        <v>56.51242549447702</v>
+        <v>56.51242549447701</v>
       </c>
       <c r="D123">
-        <v>7.487574505522979</v>
+        <v>7.487574505522993</v>
       </c>
       <c r="E123" t="s">
         <v>175</v>
@@ -3220,10 +3220,10 @@
         <v>66</v>
       </c>
       <c r="C124">
-        <v>54.99672465915899</v>
+        <v>54.996724659159</v>
       </c>
       <c r="D124">
-        <v>11.00327534084101</v>
+        <v>11.003275340841</v>
       </c>
       <c r="E124" t="s">
         <v>176</v>
@@ -3237,10 +3237,10 @@
         <v>66</v>
       </c>
       <c r="C125">
-        <v>61.6911320587778</v>
+        <v>61.69113205877777</v>
       </c>
       <c r="D125">
-        <v>4.308867941222204</v>
+        <v>4.308867941222232</v>
       </c>
       <c r="E125" t="s">
         <v>174</v>
@@ -3254,10 +3254,10 @@
         <v>70</v>
       </c>
       <c r="C126">
-        <v>63.44530450406226</v>
+        <v>63.44530450406222</v>
       </c>
       <c r="D126">
-        <v>6.554695495937743</v>
+        <v>6.554695495937779</v>
       </c>
       <c r="E126" t="s">
         <v>175</v>
@@ -3271,10 +3271,10 @@
         <v>53</v>
       </c>
       <c r="C127">
-        <v>58.77202365608278</v>
+        <v>58.77202365608277</v>
       </c>
       <c r="D127">
-        <v>5.77202365608278</v>
+        <v>5.772023656082766</v>
       </c>
       <c r="E127" t="s">
         <v>175</v>
@@ -3305,10 +3305,10 @@
         <v>70</v>
       </c>
       <c r="C129">
-        <v>62.23984378259877</v>
+        <v>62.23984378259875</v>
       </c>
       <c r="D129">
-        <v>7.760156217401232</v>
+        <v>7.760156217401246</v>
       </c>
       <c r="E129" t="s">
         <v>175</v>
@@ -3339,10 +3339,10 @@
         <v>65</v>
       </c>
       <c r="C131">
-        <v>75.1413300964828</v>
+        <v>75.14133009648278</v>
       </c>
       <c r="D131">
-        <v>10.1413300964828</v>
+        <v>10.14133009648278</v>
       </c>
       <c r="E131" t="s">
         <v>176</v>
@@ -3390,10 +3390,10 @@
         <v>70</v>
       </c>
       <c r="C134">
-        <v>68.67725952197029</v>
+        <v>68.67725952197027</v>
       </c>
       <c r="D134">
-        <v>1.322740478029715</v>
+        <v>1.322740478029729</v>
       </c>
       <c r="E134" t="s">
         <v>174</v>
@@ -3407,10 +3407,10 @@
         <v>62</v>
       </c>
       <c r="C135">
-        <v>67.63974076189228</v>
+        <v>67.63974076189227</v>
       </c>
       <c r="D135">
-        <v>5.639740761892284</v>
+        <v>5.63974076189227</v>
       </c>
       <c r="E135" t="s">
         <v>175</v>
@@ -3424,10 +3424,10 @@
         <v>86</v>
       </c>
       <c r="C136">
-        <v>60.53925066178518</v>
+        <v>60.53925066178519</v>
       </c>
       <c r="D136">
-        <v>25.46074933821482</v>
+        <v>25.46074933821481</v>
       </c>
       <c r="E136" t="s">
         <v>177</v>
@@ -3444,7 +3444,7 @@
         <v>59.27641788813582</v>
       </c>
       <c r="D137">
-        <v>2.723582111864182</v>
+        <v>2.723582111864175</v>
       </c>
       <c r="E137" t="s">
         <v>174</v>
@@ -3475,10 +3475,10 @@
         <v>64</v>
       </c>
       <c r="C139">
-        <v>62.50908460021695</v>
+        <v>62.50908460021694</v>
       </c>
       <c r="D139">
-        <v>1.490915399783049</v>
+        <v>1.490915399783056</v>
       </c>
       <c r="E139" t="s">
         <v>174</v>
@@ -3509,10 +3509,10 @@
         <v>52</v>
       </c>
       <c r="C141">
-        <v>72.01730809181812</v>
+        <v>72.01730809181808</v>
       </c>
       <c r="D141">
-        <v>20.01730809181812</v>
+        <v>20.01730809181808</v>
       </c>
       <c r="E141" t="s">
         <v>177</v>
@@ -3526,10 +3526,10 @@
         <v>63</v>
       </c>
       <c r="C142">
-        <v>71.77750225345441</v>
+        <v>71.7775022534544</v>
       </c>
       <c r="D142">
-        <v>8.777502253454415</v>
+        <v>8.777502253454401</v>
       </c>
       <c r="E142" t="s">
         <v>175</v>
@@ -3543,10 +3543,10 @@
         <v>55</v>
       </c>
       <c r="C143">
-        <v>56.70639152137679</v>
+        <v>56.70639152137677</v>
       </c>
       <c r="D143">
-        <v>1.706391521376787</v>
+        <v>1.706391521376773</v>
       </c>
       <c r="E143" t="s">
         <v>174</v>
@@ -3560,10 +3560,10 @@
         <v>44</v>
       </c>
       <c r="C144">
-        <v>61.54170892001853</v>
+        <v>61.54170892001851</v>
       </c>
       <c r="D144">
-        <v>17.54170892001853</v>
+        <v>17.54170892001851</v>
       </c>
       <c r="E144" t="s">
         <v>176</v>
@@ -3594,10 +3594,10 @@
         <v>47</v>
       </c>
       <c r="C146">
-        <v>64.86611950629529</v>
+        <v>64.86611950629526</v>
       </c>
       <c r="D146">
-        <v>17.86611950629529</v>
+        <v>17.86611950629526</v>
       </c>
       <c r="E146" t="s">
         <v>176</v>
@@ -3611,10 +3611,10 @@
         <v>57</v>
       </c>
       <c r="C147">
-        <v>71.74087073740093</v>
+        <v>71.7408707374009</v>
       </c>
       <c r="D147">
-        <v>14.74087073740093</v>
+        <v>14.7408707374009</v>
       </c>
       <c r="E147" t="s">
         <v>176</v>
@@ -3628,10 +3628,10 @@
         <v>70</v>
       </c>
       <c r="C148">
-        <v>72.94237810141557</v>
+        <v>72.94237810141554</v>
       </c>
       <c r="D148">
-        <v>2.942378101415571</v>
+        <v>2.942378101415542</v>
       </c>
       <c r="E148" t="s">
         <v>174</v>
@@ -3648,7 +3648,7 @@
         <v>60.18168915699447</v>
       </c>
       <c r="D149">
-        <v>7.181689156994473</v>
+        <v>7.181689156994466</v>
       </c>
       <c r="E149" t="s">
         <v>175</v>
@@ -3682,7 +3682,7 @@
         <v>63.88846590477525</v>
       </c>
       <c r="D151">
-        <v>3.111534095224755</v>
+        <v>3.111534095224748</v>
       </c>
       <c r="E151" t="s">
         <v>174</v>
@@ -3696,10 +3696,10 @@
         <v>94</v>
       </c>
       <c r="C152">
-        <v>83.75893226478082</v>
+        <v>83.75893226478081</v>
       </c>
       <c r="D152">
-        <v>10.24106773521918</v>
+        <v>10.24106773521919</v>
       </c>
       <c r="E152" t="s">
         <v>176</v>
@@ -3730,10 +3730,10 @@
         <v>69</v>
       </c>
       <c r="C154">
-        <v>68.27038271348074</v>
+        <v>68.27038271348073</v>
       </c>
       <c r="D154">
-        <v>0.7296172865192574</v>
+        <v>0.7296172865192716</v>
       </c>
       <c r="E154" t="s">
         <v>174</v>
@@ -3747,10 +3747,10 @@
         <v>62</v>
       </c>
       <c r="C155">
-        <v>62.98422506717809</v>
+        <v>62.98422506717807</v>
       </c>
       <c r="D155">
-        <v>0.9842250671780874</v>
+        <v>0.9842250671780732</v>
       </c>
       <c r="E155" t="s">
         <v>174</v>
@@ -3781,10 +3781,10 @@
         <v>51</v>
       </c>
       <c r="C157">
-        <v>64.37918969165186</v>
+        <v>64.37918969165185</v>
       </c>
       <c r="D157">
-        <v>13.37918969165186</v>
+        <v>13.37918969165185</v>
       </c>
       <c r="E157" t="s">
         <v>176</v>
@@ -3798,10 +3798,10 @@
         <v>55</v>
       </c>
       <c r="C158">
-        <v>63.46294415366054</v>
+        <v>63.46294415366052</v>
       </c>
       <c r="D158">
-        <v>8.462944153660537</v>
+        <v>8.462944153660516</v>
       </c>
       <c r="E158" t="s">
         <v>175</v>
@@ -3815,10 +3815,10 @@
         <v>61</v>
       </c>
       <c r="C159">
-        <v>62.90199721331617</v>
+        <v>62.90199721331618</v>
       </c>
       <c r="D159">
-        <v>1.901997213316172</v>
+        <v>1.901997213316179</v>
       </c>
       <c r="E159" t="s">
         <v>174</v>
@@ -3832,10 +3832,10 @@
         <v>57</v>
       </c>
       <c r="C160">
-        <v>61.12666809987228</v>
+        <v>61.12666809987227</v>
       </c>
       <c r="D160">
-        <v>4.126668099872276</v>
+        <v>4.126668099872269</v>
       </c>
       <c r="E160" t="s">
         <v>174</v>
@@ -3849,10 +3849,10 @@
         <v>62</v>
       </c>
       <c r="C161">
-        <v>63.46836528666057</v>
+        <v>63.46836528666054</v>
       </c>
       <c r="D161">
-        <v>1.468365286660571</v>
+        <v>1.468365286660543</v>
       </c>
       <c r="E161" t="s">
         <v>174</v>
@@ -3900,10 +3900,10 @@
         <v>64</v>
       </c>
       <c r="C164">
-        <v>65.31255388026635</v>
+        <v>65.31255388026634</v>
       </c>
       <c r="D164">
-        <v>1.31255388026635</v>
+        <v>1.312553880266336</v>
       </c>
       <c r="E164" t="s">
         <v>174</v>
@@ -3934,10 +3934,10 @@
         <v>60</v>
       </c>
       <c r="C166">
-        <v>57.38890109924167</v>
+        <v>57.38890109924168</v>
       </c>
       <c r="D166">
-        <v>2.611098900758329</v>
+        <v>2.611098900758321</v>
       </c>
       <c r="E166" t="s">
         <v>174</v>
@@ -3951,10 +3951,10 @@
         <v>78</v>
       </c>
       <c r="C167">
-        <v>83.16798515215301</v>
+        <v>83.16798515215299</v>
       </c>
       <c r="D167">
-        <v>5.167985152153008</v>
+        <v>5.167985152152994</v>
       </c>
       <c r="E167" t="s">
         <v>175</v>
@@ -3968,10 +3968,10 @@
         <v>77</v>
       </c>
       <c r="C168">
-        <v>81.1821602681358</v>
+        <v>81.18216026813577</v>
       </c>
       <c r="D168">
-        <v>4.182160268135803</v>
+        <v>4.182160268135775</v>
       </c>
       <c r="E168" t="s">
         <v>174</v>
@@ -4002,10 +4002,10 @@
         <v>70</v>
       </c>
       <c r="C170">
-        <v>65.16010721497493</v>
+        <v>65.16010721497491</v>
       </c>
       <c r="D170">
-        <v>4.839892785025071</v>
+        <v>4.839892785025086</v>
       </c>
       <c r="E170" t="s">
         <v>174</v>
